--- a/PSCP_Course_code.xlsx
+++ b/PSCP_Course_code.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\GitHub\PSCP-First-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B4F7108-AA4E-491C-96B5-14AA2AB221EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6BC598-85CD-433F-80DC-AC3D352EE3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{04177232-DD44-4870-984D-BD2D1A9DA483}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="53">
   <si>
     <t>course_code</t>
   </si>
@@ -45,12 +45,6 @@
     <t>PROBLEM SOLVING AND COMPUTER PROGRAMMING</t>
   </si>
   <si>
-    <t>CHARM SCHOOL</t>
-  </si>
-  <si>
-    <t>FOUNDATION ENGLISH 1</t>
-  </si>
-  <si>
     <t>professor</t>
   </si>
   <si>
@@ -66,12 +60,6 @@
     <t>รศ. ดร. อาริต ธรรมโน,ผศ.ดร. โอฬาร วงศ์วิรัตน์</t>
   </si>
   <si>
-    <t>อ. สุนทรียา สันติโชตินันท์,ผศ.ดร. รวิภัทร ลาภเจริญสุข</t>
-  </si>
-  <si>
-    <t>อ. ยิหวามาดา ลิลา,ผศ.ดร. มธุรดา จิโนรส</t>
-  </si>
-  <si>
     <t>INFORMATION TECHNOLOGY FUNDAMENTALS</t>
   </si>
   <si>
@@ -85,6 +73,117 @@
   </si>
   <si>
     <t>รศ.ดร. โชติพัชร์ ภรณวลัย</t>
+  </si>
+  <si>
+    <t>MATHEMATICS FOR INFORMATION TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>session</t>
+  </si>
+  <si>
+    <t>ผศ.ดร. สมเกียรติ วังศิริพิทักษ์,ผศ.ดร. ประพันธ์ ปวรางกูร</t>
+  </si>
+  <si>
+    <t>classroom</t>
+  </si>
+  <si>
+    <t>M22</t>
+  </si>
+  <si>
+    <t>M04</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Audi</t>
+  </si>
+  <si>
+    <t>Project Base4 ชั้น 3</t>
+  </si>
+  <si>
+    <t>L308</t>
+  </si>
+  <si>
+    <t>อ. 14:00-16:00</t>
+  </si>
+  <si>
+    <t>อ. 16:00-18:00</t>
+  </si>
+  <si>
+    <t>ศ. 09:00-11:00</t>
+  </si>
+  <si>
+    <t>ศ. 11:00-13:00</t>
+  </si>
+  <si>
+    <t>ศ. 14:00-16:00</t>
+  </si>
+  <si>
+    <t>Project Base3 ชั้น 3</t>
+  </si>
+  <si>
+    <t>L207</t>
+  </si>
+  <si>
+    <t>จ. 09:00-11:00</t>
+  </si>
+  <si>
+    <t>จ. 14:00-16:00</t>
+  </si>
+  <si>
+    <t>จ. 11:00-13:00</t>
+  </si>
+  <si>
+    <t>Slope</t>
+  </si>
+  <si>
+    <t>L203</t>
+  </si>
+  <si>
+    <t>อ. 9.00 - 12.00</t>
+  </si>
+  <si>
+    <t>อ. 13.00 - 16.00</t>
+  </si>
+  <si>
+    <t>พ. 13.00 - 16.00</t>
+  </si>
+  <si>
+    <t>อ. 09:00-12:00</t>
+  </si>
+  <si>
+    <t>Project Base2 ชั้น 2</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>พฤ. 09:00-12:00</t>
+  </si>
+  <si>
+    <t>M03</t>
+  </si>
+  <si>
+    <t>พ. 13:00-16:00</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>L304</t>
+  </si>
+  <si>
+    <t>จ. 13:30-15:30</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>จ. 15:30-17:30</t>
   </si>
 </sst>
 </file>
@@ -141,7 +240,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -154,6 +253,12 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -470,22 +575,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A10B333-3DCE-44EC-9E01-7D0A22498EE8}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.77734375" defaultRowHeight="18.600000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.77734375" style="3"/>
     <col min="2" max="2" width="50.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="52.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5546875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="16.77734375" style="1"/>
+    <col min="3" max="3" width="9.5546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="54.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="16.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.600000000000001" customHeight="1">
+    <row r="1" spans="1:6" ht="18.600000000000001" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -493,106 +600,616 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18.600000000000001" customHeight="1">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.600000000000001" customHeight="1">
       <c r="A2" s="3">
         <v>6026200</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.600000000000001" customHeight="1">
+      <c r="C2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1">
       <c r="A3" s="4">
         <v>6026202</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="18.600000000000001" customHeight="1">
+      <c r="C3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1">
       <c r="A4" s="3">
         <v>6066101</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="18.600000000000001" customHeight="1">
+      <c r="C4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.600000000000001" customHeight="1">
       <c r="A5" s="3">
         <v>6066303</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="18.600000000000001" customHeight="1">
+      <c r="C5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1">
       <c r="A6" s="3">
-        <v>90642999</v>
+        <v>6066303</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.600000000000001" customHeight="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1">
       <c r="A7" s="3">
-        <v>90644007</v>
+        <v>6066303</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="18.600000000000001" customHeight="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.600000000000001" customHeight="1">
       <c r="A8" s="3">
-        <v>6016402</v>
+        <v>6066303</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18.600000000000001" customHeight="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.600000000000001" customHeight="1">
       <c r="A9" s="3">
-        <v>6016411</v>
+        <v>6016401</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="18.600000000000001" customHeight="1">
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.600000000000001" customHeight="1">
       <c r="A10" s="3">
+        <v>6016401</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18.600000000000001" customHeight="1">
+      <c r="A11" s="3">
+        <v>6016401</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="5">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18.600000000000001" customHeight="1">
+      <c r="A12" s="3">
+        <v>6016402</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18.600000000000001" customHeight="1">
+      <c r="A13" s="3">
+        <v>6016402</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18.600000000000001" customHeight="1">
+      <c r="A14" s="3">
+        <v>6016402</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18.600000000000001" customHeight="1">
+      <c r="A15" s="3">
+        <v>6016402</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18.600000000000001" customHeight="1">
+      <c r="A16" s="3">
+        <v>6016402</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="5">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18.600000000000001" customHeight="1">
+      <c r="A17" s="3">
+        <v>6016402</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="5">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18.600000000000001" customHeight="1">
+      <c r="A18" s="3">
+        <v>6016411</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18.600000000000001" customHeight="1">
+      <c r="A19" s="3">
+        <v>6016411</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18.600000000000001" customHeight="1">
+      <c r="A20" s="3">
+        <v>6016411</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="5">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18.600000000000001" customHeight="1">
+      <c r="A21" s="3">
+        <v>6016411</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="5">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18.600000000000001" customHeight="1">
+      <c r="A22" s="3">
+        <v>6016411</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="5">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18.600000000000001" customHeight="1">
+      <c r="A23" s="3">
+        <v>6016411</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="5">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18.600000000000001" customHeight="1">
+      <c r="A24" s="3">
         <v>6066303</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>19</v>
+      <c r="B24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18.600000000000001" customHeight="1">
+      <c r="A25" s="3">
+        <v>6066303</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="5">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18.600000000000001" customHeight="1">
+      <c r="A26" s="3">
+        <v>6066303</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="5">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18.600000000000001" customHeight="1">
+      <c r="A27" s="3">
+        <v>6066303</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="5">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18.600000000000001" customHeight="1">
+      <c r="A28" s="3">
+        <v>6066303</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="5">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18.600000000000001" customHeight="1">
+      <c r="A29" s="3">
+        <v>6066303</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="5">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18.600000000000001" customHeight="1">
+      <c r="A30" s="3">
+        <v>6066303</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="5">
+        <v>7</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18.600000000000001" customHeight="1">
+      <c r="A31" s="3">
+        <v>6066303</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="5">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
